--- a/HomeNetShopping/WebContent/temp/HomeNet쇼핑몰/테이블레이아웃.txt.xlsx
+++ b/HomeNetShopping/WebContent/temp/HomeNet쇼핑몰/테이블레이아웃.txt.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="TB_DISP_SHOP_BASE" sheetId="1" r:id="rId1"/>
     <sheet name="TB_DISP_GOODS_INFO" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="TB_DISP_IMG_INFO" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
   <si>
     <t>Column Name</t>
   </si>
@@ -363,6 +363,39 @@
   </si>
   <si>
     <t>권한_수행_일시</t>
+  </si>
+  <si>
+    <t>전시이미지유형코드</t>
+  </si>
+  <si>
+    <t>DISP_IMG_TP_CD</t>
+  </si>
+  <si>
+    <t>새 컬럼2</t>
+  </si>
+  <si>
+    <t>BNR_IMG_PATH_NM</t>
+  </si>
+  <si>
+    <t>배너이미지파일명</t>
+  </si>
+  <si>
+    <t>BNR_IMG_FILE_NM</t>
+  </si>
+  <si>
+    <t>연결 URL주소</t>
+  </si>
+  <si>
+    <t>DISP_SHOP_SCT_CD</t>
+  </si>
+  <si>
+    <t>IMG_SN</t>
+  </si>
+  <si>
+    <t>전시매장구분코드</t>
+  </si>
+  <si>
+    <t>이미지일련번호</t>
   </si>
 </sst>
 </file>
@@ -715,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1685,9 +1718,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>

--- a/HomeNetShopping/WebContent/temp/HomeNet쇼핑몰/테이블레이아웃.txt.xlsx
+++ b/HomeNetShopping/WebContent/temp/HomeNet쇼핑몰/테이블레이아웃.txt.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="TB_DISP_SHOP_BASE" sheetId="1" r:id="rId1"/>
     <sheet name="TB_DISP_GOODS_INFO" sheetId="2" r:id="rId2"/>
-    <sheet name="TB_DISP_IMG_INFO" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="TB_GOODS_ARTC_CD" sheetId="6" r:id="rId3"/>
+    <sheet name="TB_DISP_IMG_INFO" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="150">
   <si>
     <t>Column Name</t>
   </si>
@@ -396,6 +397,82 @@
   </si>
   <si>
     <t>이미지일련번호</t>
+  </si>
+  <si>
+    <t>ARTC_CD</t>
+  </si>
+  <si>
+    <t>품목코드</t>
+  </si>
+  <si>
+    <t>EC_ARTC_CD</t>
+  </si>
+  <si>
+    <t>전자상거래품목코드</t>
+  </si>
+  <si>
+    <t>UPR_ARTC_CD</t>
+  </si>
+  <si>
+    <t>VARCHAR2 (100 Byte)</t>
+  </si>
+  <si>
+    <t>상위 품목코드</t>
+  </si>
+  <si>
+    <t>ARTC_DPTH_NO</t>
+  </si>
+  <si>
+    <t>품목깊이번호</t>
+  </si>
+  <si>
+    <t>ARTC_NM</t>
+  </si>
+  <si>
+    <t>품목명</t>
+  </si>
+  <si>
+    <t>ARTC_FULL_NM</t>
+  </si>
+  <si>
+    <t>VARCHAR2 (300 Byte)</t>
+  </si>
+  <si>
+    <t>품목FULL명</t>
+  </si>
+  <si>
+    <t>ONL_BRCH_INV_RT</t>
+  </si>
+  <si>
+    <t>재고율</t>
+  </si>
+  <si>
+    <t>MAX_LMT_QTY</t>
+  </si>
+  <si>
+    <t>최대구매수량</t>
+  </si>
+  <si>
+    <t>GOODS_MRGN_RT</t>
+  </si>
+  <si>
+    <t>상품마진율</t>
+  </si>
+  <si>
+    <t>SIZE_LKTB_FILE_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE_LKTB_PATH_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈조견표 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈조견표 파일패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1718,9 +1795,404 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
@@ -1917,7 +2389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -2068,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>

--- a/HomeNetShopping/WebContent/temp/HomeNet쇼핑몰/테이블레이아웃.txt.xlsx
+++ b/HomeNetShopping/WebContent/temp/HomeNet쇼핑몰/테이블레이아웃.txt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="26955" windowHeight="13020" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TB_DISP_SHOP_BASE" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="TB_DISP_IMG_INFO" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="TB_GOODS_EC_ARTC_PBLD_INFO" sheetId="7" r:id="rId7"/>
+    <sheet name="TB_GOODS_EC_ARTC_ITEM_NM_INFO" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="221">
   <si>
     <t>Column Name</t>
   </si>
@@ -473,6 +475,219 @@
   <si>
     <t>사이즈조견표 파일패스</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자상거래품목품목명</t>
+  </si>
+  <si>
+    <t>MDL_NM</t>
+  </si>
+  <si>
+    <t>모델명</t>
+  </si>
+  <si>
+    <t>RAT_VLTG_VAL</t>
+  </si>
+  <si>
+    <t>정격전압값</t>
+  </si>
+  <si>
+    <t>CNSM_POWER_VAL</t>
+  </si>
+  <si>
+    <t>소모전력값</t>
+  </si>
+  <si>
+    <t>ENRG_CNSM_EFCNC_GRADE_VAL</t>
+  </si>
+  <si>
+    <t>에너지소포효율등급코드</t>
+  </si>
+  <si>
+    <t>SMNS_MDL_LNCH_YM</t>
+  </si>
+  <si>
+    <t>동일모델출시년월</t>
+  </si>
+  <si>
+    <t>QUAL_GRTE_STD_CONT</t>
+  </si>
+  <si>
+    <t>품질보증기준내용</t>
+  </si>
+  <si>
+    <t>SZ_WDTH_VAL</t>
+  </si>
+  <si>
+    <t>크기가로값</t>
+  </si>
+  <si>
+    <t>SZ_LNTH_VAL</t>
+  </si>
+  <si>
+    <t>크기세로값</t>
+  </si>
+  <si>
+    <t>SZ_HGT_VAL</t>
+  </si>
+  <si>
+    <t>크기높이값</t>
+  </si>
+  <si>
+    <t>WGT_VAL</t>
+  </si>
+  <si>
+    <t>중량값</t>
+  </si>
+  <si>
+    <t>CLOR_CD</t>
+  </si>
+  <si>
+    <t>색상코드</t>
+  </si>
+  <si>
+    <t>AS_MGR_NM</t>
+  </si>
+  <si>
+    <t>AS책임자</t>
+  </si>
+  <si>
+    <t>AS_MGR_PHON_VAL</t>
+  </si>
+  <si>
+    <t>AS책임자전화번호</t>
+  </si>
+  <si>
+    <t>ITEM_1_VAL</t>
+  </si>
+  <si>
+    <t>항목1값</t>
+  </si>
+  <si>
+    <t>ITEM_2_VAL</t>
+  </si>
+  <si>
+    <t>항목2값</t>
+  </si>
+  <si>
+    <t>ITEM_3_VAL</t>
+  </si>
+  <si>
+    <t>항목3값</t>
+  </si>
+  <si>
+    <t>ITEM_4_VAL</t>
+  </si>
+  <si>
+    <t>항목4값</t>
+  </si>
+  <si>
+    <t>ITEM_5_VAL</t>
+  </si>
+  <si>
+    <t>항목5값</t>
+  </si>
+  <si>
+    <t>ITEM_6_VAL</t>
+  </si>
+  <si>
+    <t>항목6값</t>
+  </si>
+  <si>
+    <t>ITEM_7_VAL</t>
+  </si>
+  <si>
+    <t>항목7값</t>
+  </si>
+  <si>
+    <t>ITEM_8_VAL</t>
+  </si>
+  <si>
+    <t>항목8값</t>
+  </si>
+  <si>
+    <t>ITEM_9_VAL</t>
+  </si>
+  <si>
+    <t>항목9값</t>
+  </si>
+  <si>
+    <t>ITEM_10_VAL</t>
+  </si>
+  <si>
+    <t>항목10값</t>
+  </si>
+  <si>
+    <t>ITEM_11_VAL</t>
+  </si>
+  <si>
+    <t>항목11값</t>
+  </si>
+  <si>
+    <t>ITEM_1_NM</t>
+  </si>
+  <si>
+    <t>항목1명</t>
+  </si>
+  <si>
+    <t>ITEM_2_NM</t>
+  </si>
+  <si>
+    <t>항목2명</t>
+  </si>
+  <si>
+    <t>ITEM_3_NM</t>
+  </si>
+  <si>
+    <t>항목3명</t>
+  </si>
+  <si>
+    <t>ITEM_4_NM</t>
+  </si>
+  <si>
+    <t>항목4명</t>
+  </si>
+  <si>
+    <t>ITEM_5_NM</t>
+  </si>
+  <si>
+    <t>항목5명</t>
+  </si>
+  <si>
+    <t>ITEM_6_NM</t>
+  </si>
+  <si>
+    <t>항목6명</t>
+  </si>
+  <si>
+    <t>ITEM_7_NM</t>
+  </si>
+  <si>
+    <t>항목7명</t>
+  </si>
+  <si>
+    <t>ITEM_8_NM</t>
+  </si>
+  <si>
+    <t>항목8명</t>
+  </si>
+  <si>
+    <t>ITEM_9_NM</t>
+  </si>
+  <si>
+    <t>항목9명</t>
+  </si>
+  <si>
+    <t>ITEM_10_NM</t>
+  </si>
+  <si>
+    <t>항목10명</t>
+  </si>
+  <si>
+    <t>ITEM_11_NM</t>
+  </si>
+  <si>
+    <t>항목11명</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2749,4 +2964,1130 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>